--- a/excel-app/files/database.xlsx
+++ b/excel-app/files/database.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\python-playground\excel-app\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="4320" yWindow="4820" windowWidth="24660" windowHeight="13240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Roy Module Construct" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,12 @@
     <sheet name="ProductClauses" sheetId="7" r:id="rId13"/>
     <sheet name="ECONData" sheetId="10" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -678,7 +678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -748,7 +748,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -759,27 +759,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -787,23 +787,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -811,14 +811,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,7 +827,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,10 +908,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,10 +923,10 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1107,7 +1107,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1162,7 +1162,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1217,7 +1217,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1275,7 +1275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,7 +1310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,40 +1519,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="17">
         <f>221.123456 - 2.123456</f>
         <v>219</v>
@@ -1570,12 +1570,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -1703,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -1715,7 +1715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
@@ -1727,7 +1727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1737,22 +1737,22 @@
       <c r="G15" s="9"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -1768,17 +1768,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="D24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28" s="21">
         <v>42307</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="22"/>
       <c r="C29" s="21">
         <v>42307</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="22"/>
       <c r="C30" s="21">
         <v>42282</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="B31" s="26"/>
       <c r="C31" s="27">
         <v>42282</v>
@@ -1853,8 +1853,8 @@
       </c>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" thickTop="1"/>
+    <row r="33" spans="5:5">
       <c r="E33">
         <f>SUM(E27:E32)</f>
         <v>19815.62</v>
@@ -1868,8 +1868,13 @@
     <hyperlink ref="F31" r:id="rId4" display="https://qbo-ca.onlinepayroll.intuit.com/reports/checkRegister.jsf?directAccess=true"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <drawing r:id="rId5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1881,9 +1886,9 @@
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1965,6 +1970,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1976,12 +1986,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2005,6 +2015,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2016,12 +2031,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2031,6 +2046,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2042,19 +2062,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2082,6 +2102,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2090,23 +2115,22 @@
   <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2201,7 +2225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2296,7 +2320,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2391,7 +2415,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2486,7 +2510,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2581,7 +2605,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -2676,7 +2700,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2771,7 +2795,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2961,7 +2985,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3056,7 +3080,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -3151,7 +3175,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3341,7 +3365,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3436,7 +3460,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3531,7 +3555,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -3721,7 +3745,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3816,7 +3840,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -4006,7 +4030,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -4101,7 +4125,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -4196,7 +4220,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4291,7 +4315,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -4386,7 +4410,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4481,7 +4505,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -4576,7 +4600,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -4671,7 +4695,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4766,7 +4790,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -4861,7 +4885,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -4956,7 +4980,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -5051,7 +5075,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5146,7 +5170,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -5241,7 +5265,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -5336,7 +5360,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -5431,7 +5455,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -5526,7 +5550,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -5621,7 +5645,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -5716,7 +5740,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -5811,7 +5835,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -5906,7 +5930,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -6001,7 +6025,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -6096,7 +6120,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -6191,7 +6215,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -6286,7 +6310,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -6381,7 +6405,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -6476,7 +6500,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -6571,7 +6595,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -6668,6 +6692,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6679,15 +6708,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -6698,7 +6727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -6709,7 +6738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -6722,6 +6751,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6730,16 +6764,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -6750,7 +6784,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -6763,6 +6797,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6774,19 +6813,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
@@ -6821,7 +6860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6853,7 +6892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6882,7 +6921,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6908,7 +6947,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6954,7 +6993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -6977,7 +7016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7000,7 +7039,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7023,7 +7062,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7043,7 +7082,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7068,6 +7107,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7079,15 +7123,15 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
@@ -7107,7 +7151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7124,7 +7168,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7141,7 +7185,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7158,7 +7202,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7219,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7192,7 +7236,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7209,7 +7253,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7270,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7243,7 +7287,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7260,7 +7304,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7282,6 +7326,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7289,24 +7338,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -7344,7 +7393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7382,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7420,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7452,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7484,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7513,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7548,7 +7597,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7583,7 +7632,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7618,7 +7667,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7650,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7682,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7714,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7746,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7778,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7810,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7842,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7874,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7906,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7938,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7970,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8002,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8034,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8066,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8098,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8130,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8162,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>30</v>
       </c>
@@ -8194,7 +8243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>31</v>
       </c>
@@ -8220,7 +8269,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>32</v>
       </c>
@@ -8246,7 +8295,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>33</v>
       </c>
@@ -8272,7 +8321,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -8298,7 +8347,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -8330,7 +8379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -8362,7 +8411,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -8390,7 +8439,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8398,25 +8452,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -8454,7 +8508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8477,7 +8531,7 @@
         <v>740</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I2">
         <v>2.2000000000000002</v>
@@ -8492,7 +8546,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8530,7 +8584,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8568,7 +8622,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8606,7 +8660,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>34</v>
       </c>
@@ -8644,7 +8698,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>35</v>
       </c>
@@ -8682,7 +8736,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8720,7 +8774,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8758,7 +8812,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8796,7 +8850,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8834,7 +8888,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8872,7 +8926,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>7</v>
       </c>
@@ -8910,7 +8964,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>8</v>
       </c>
@@ -8948,7 +9002,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>9</v>
       </c>
@@ -8986,7 +9040,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>10</v>
       </c>
@@ -9024,7 +9078,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9062,7 +9116,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>12</v>
       </c>
@@ -9100,7 +9154,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>13</v>
       </c>
@@ -9138,7 +9192,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>14</v>
       </c>
@@ -9176,7 +9230,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>15</v>
       </c>
@@ -9214,7 +9268,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>16</v>
       </c>
@@ -9252,7 +9306,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>17</v>
       </c>
@@ -9290,7 +9344,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>18</v>
       </c>
@@ -9328,7 +9382,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>19</v>
       </c>
@@ -9366,7 +9420,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>20</v>
       </c>
@@ -9404,7 +9458,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>21</v>
       </c>
@@ -9442,7 +9496,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>22</v>
       </c>
@@ -9480,7 +9534,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>23</v>
       </c>
@@ -9518,7 +9572,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>24</v>
       </c>
@@ -9556,7 +9610,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>25</v>
       </c>
@@ -9594,7 +9648,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>26</v>
       </c>
@@ -9632,7 +9686,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>27</v>
       </c>
@@ -9670,7 +9724,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>28</v>
       </c>
@@ -9708,7 +9762,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>29</v>
       </c>
@@ -9746,7 +9800,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>30</v>
       </c>
@@ -9784,7 +9838,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>31</v>
       </c>
@@ -9822,7 +9876,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>32</v>
       </c>
@@ -9860,7 +9914,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>33</v>
       </c>
@@ -9898,7 +9952,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>36</v>
       </c>
@@ -9936,7 +9990,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>37</v>
       </c>
@@ -9974,7 +10028,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>38</v>
       </c>
@@ -10012,7 +10066,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>39</v>
       </c>
@@ -10050,7 +10104,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>40</v>
       </c>
@@ -10088,7 +10142,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>41</v>
       </c>
@@ -10128,6 +10182,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10137,12 +10196,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -10180,7 +10239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10220,6 +10279,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10229,9 +10293,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -10311,7 +10375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>201501</v>
       </c>
@@ -10388,7 +10452,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>201501</v>
       </c>
@@ -10465,7 +10529,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>201501</v>
       </c>
@@ -10542,7 +10606,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>201501</v>
       </c>
@@ -10616,7 +10680,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>201501</v>
       </c>
@@ -10690,7 +10754,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>201501</v>
       </c>
@@ -10761,7 +10825,7 @@
         <v>386.97</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>201501</v>
       </c>
@@ -10832,7 +10896,7 @@
         <v>1597.62</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>201501</v>
       </c>
@@ -10903,7 +10967,7 @@
         <v>1152.6099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>201501</v>
       </c>
@@ -10974,7 +11038,7 @@
         <v>386.97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>201502</v>
       </c>
@@ -11048,7 +11112,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>201503</v>
       </c>
@@ -11122,7 +11186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>201504</v>
       </c>
@@ -11193,7 +11257,7 @@
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>201504</v>
       </c>
@@ -11264,7 +11328,7 @@
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>201504</v>
       </c>
@@ -11338,7 +11402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>201503</v>
       </c>
@@ -11412,7 +11476,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>201503</v>
       </c>
@@ -11489,7 +11553,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>201503</v>
       </c>
@@ -11566,7 +11630,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>201503</v>
       </c>
@@ -11643,7 +11707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>201503</v>
       </c>
@@ -11720,7 +11784,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>201504</v>
       </c>
@@ -11797,7 +11861,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>201504</v>
       </c>
@@ -11874,7 +11938,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>201504</v>
       </c>
@@ -11951,7 +12015,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>201504</v>
       </c>
@@ -12022,7 +12086,7 @@
         <v>3607.43</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>201504</v>
       </c>
@@ -12093,7 +12157,7 @@
         <v>3607.43</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>201504</v>
       </c>
@@ -12167,7 +12231,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>201504</v>
       </c>
@@ -12241,7 +12305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>201504</v>
       </c>
@@ -12312,7 +12376,7 @@
         <v>6080.8999749999994</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>201504</v>
       </c>
@@ -12383,7 +12447,7 @@
         <v>5925.68</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>201504</v>
       </c>
@@ -12457,7 +12521,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>201504</v>
       </c>
@@ -12530,5 +12594,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel-app/files/database.xlsx
+++ b/excel-app/files/database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\python-playground\excel-app\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4820" windowWidth="24660" windowHeight="13240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Roy Module Construct" sheetId="1" r:id="rId1"/>
@@ -22,12 +27,7 @@
     <sheet name="ProductClauses" sheetId="7" r:id="rId13"/>
     <sheet name="ECONData" sheetId="10" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -678,7 +678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -748,7 +748,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -759,27 +759,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -787,23 +787,23 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -811,14 +811,14 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,7 +827,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,10 +908,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,10 +923,10 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1107,7 +1107,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1162,7 +1162,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1217,7 +1217,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1275,7 +1275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,7 +1310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,40 +1519,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>221.123456 - 2.123456</f>
         <v>219</v>
@@ -1570,12 +1570,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -1703,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -1715,7 +1715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
@@ -1727,7 +1727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1737,22 +1737,22 @@
       <c r="G15" s="9"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -1768,17 +1768,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="21">
         <v>42307</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="21">
         <v>42307</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="21">
         <v>42282</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="27">
         <v>42282</v>
@@ -1853,8 +1853,8 @@
       </c>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickTop="1"/>
-    <row r="33" spans="5:5">
+    <row r="32" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33">
         <f>SUM(E27:E32)</f>
         <v>19815.62</v>
@@ -1868,13 +1868,8 @@
     <hyperlink ref="F31" r:id="rId4" display="https://qbo-ca.onlinepayroll.intuit.com/reports/checkRegister.jsf?directAccess=true"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <drawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1886,9 +1881,9 @@
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1970,11 +1965,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1986,12 +1976,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +1992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2015,11 +2005,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2031,12 +2016,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2046,11 +2031,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2062,19 +2042,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2102,11 +2082,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2115,22 +2090,23 @@
   <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2225,7 +2201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2320,7 +2296,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2415,7 +2391,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2510,7 +2486,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2605,7 +2581,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -2700,7 +2676,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2795,7 +2771,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2890,7 +2866,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2985,7 +2961,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3080,7 +3056,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -3175,7 +3151,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -3270,7 +3246,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3365,7 +3341,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3460,7 +3436,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3555,7 +3531,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3650,7 +3626,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -3745,7 +3721,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3840,7 +3816,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -3935,7 +3911,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -4030,7 +4006,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -4125,7 +4101,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -4220,7 +4196,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4315,7 +4291,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -4410,7 +4386,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4505,7 +4481,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -4600,7 +4576,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -4695,7 +4671,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4790,7 +4766,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -4885,7 +4861,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -4980,7 +4956,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -5075,7 +5051,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5170,7 +5146,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -5265,7 +5241,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -5360,7 +5336,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -5455,7 +5431,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -5550,7 +5526,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -5645,7 +5621,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -5740,7 +5716,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -5835,7 +5811,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -5930,7 +5906,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -6025,7 +6001,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -6120,7 +6096,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -6215,7 +6191,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -6310,7 +6286,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -6405,7 +6381,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -6500,7 +6476,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -6595,7 +6571,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -6692,11 +6668,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6708,15 +6679,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -6727,7 +6698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -6738,7 +6709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -6751,11 +6722,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6764,16 +6730,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -6784,7 +6750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -6797,11 +6763,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6813,19 +6774,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
@@ -6860,7 +6821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6892,7 +6853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6921,7 +6882,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6947,7 +6908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6973,7 +6934,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7016,7 +6977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7039,7 +7000,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7062,7 +7023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7082,7 +7043,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7107,11 +7068,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7123,15 +7079,15 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
@@ -7151,7 +7107,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7168,7 +7124,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7185,7 +7141,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7202,7 +7158,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7219,7 +7175,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7236,7 +7192,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7253,7 +7209,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7270,7 +7226,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7287,7 +7243,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7304,7 +7260,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7326,11 +7282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7338,24 +7289,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -7393,7 +7344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7431,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7469,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7501,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7533,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7562,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7597,7 +7548,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7632,7 +7583,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7667,7 +7618,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7699,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7731,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7763,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7795,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7827,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7859,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7891,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7923,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7955,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7987,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8019,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8051,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8083,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8115,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8147,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8179,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8211,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -8243,7 +8194,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -8269,7 +8220,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
@@ -8295,7 +8246,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>33</v>
       </c>
@@ -8321,7 +8272,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -8347,7 +8298,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -8379,7 +8330,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -8411,7 +8362,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -8439,12 +8390,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8452,25 +8398,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -8508,7 +8454,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8531,7 +8477,7 @@
         <v>740</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2.2000000000000002</v>
@@ -8546,7 +8492,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8584,7 +8530,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8622,7 +8568,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8660,7 +8606,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -8698,7 +8644,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -8736,7 +8682,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8774,7 +8720,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8812,7 +8758,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8850,7 +8796,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8888,7 +8834,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8926,7 +8872,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -8964,7 +8910,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -9002,7 +8948,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -9040,7 +8986,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -9078,7 +9024,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9116,7 +9062,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -9154,7 +9100,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -9192,7 +9138,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -9230,7 +9176,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -9268,7 +9214,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -9306,7 +9252,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -9344,7 +9290,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -9382,7 +9328,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -9420,7 +9366,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -9458,7 +9404,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -9496,7 +9442,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -9534,7 +9480,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -9572,7 +9518,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -9610,7 +9556,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -9648,7 +9594,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -9686,7 +9632,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -9724,7 +9670,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -9762,7 +9708,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -9800,7 +9746,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -9838,7 +9784,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -9876,7 +9822,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
@@ -9914,7 +9860,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
@@ -9952,7 +9898,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -9990,7 +9936,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -10028,7 +9974,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -10066,7 +10012,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -10104,7 +10050,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -10142,7 +10088,7 @@
         <v>0.123455</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -10182,11 +10128,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10196,12 +10137,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -10239,7 +10180,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10279,11 +10220,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10293,9 +10229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -10375,7 +10311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201501</v>
       </c>
@@ -10452,7 +10388,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201501</v>
       </c>
@@ -10529,7 +10465,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201501</v>
       </c>
@@ -10606,7 +10542,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201501</v>
       </c>
@@ -10680,7 +10616,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>201501</v>
       </c>
@@ -10754,7 +10690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>201501</v>
       </c>
@@ -10825,7 +10761,7 @@
         <v>386.97</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201501</v>
       </c>
@@ -10896,7 +10832,7 @@
         <v>1597.62</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>201501</v>
       </c>
@@ -10967,7 +10903,7 @@
         <v>1152.6099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>201501</v>
       </c>
@@ -11038,7 +10974,7 @@
         <v>386.97</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>201502</v>
       </c>
@@ -11112,7 +11048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>201503</v>
       </c>
@@ -11186,7 +11122,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201504</v>
       </c>
@@ -11257,7 +11193,7 @@
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>201504</v>
       </c>
@@ -11328,7 +11264,7 @@
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>201504</v>
       </c>
@@ -11402,7 +11338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>201503</v>
       </c>
@@ -11476,7 +11412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>201503</v>
       </c>
@@ -11553,7 +11489,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>201503</v>
       </c>
@@ -11630,7 +11566,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>201503</v>
       </c>
@@ -11707,7 +11643,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201503</v>
       </c>
@@ -11784,7 +11720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>201504</v>
       </c>
@@ -11861,7 +11797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>201504</v>
       </c>
@@ -11938,7 +11874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201504</v>
       </c>
@@ -12015,7 +11951,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>201504</v>
       </c>
@@ -12086,7 +12022,7 @@
         <v>3607.43</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201504</v>
       </c>
@@ -12157,7 +12093,7 @@
         <v>3607.43</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>201504</v>
       </c>
@@ -12231,7 +12167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201504</v>
       </c>
@@ -12305,7 +12241,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201504</v>
       </c>
@@ -12376,7 +12312,7 @@
         <v>6080.8999749999994</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201504</v>
       </c>
@@ -12447,7 +12383,7 @@
         <v>5925.68</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>201504</v>
       </c>
@@ -12521,7 +12457,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201504</v>
       </c>
@@ -12594,10 +12530,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excel-app/files/database.xlsx
+++ b/excel-app/files/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\python-playground\excel-app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\python-playground\excel-app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Roy Module Construct" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="214">
   <si>
     <t>Lease Type</t>
   </si>
@@ -259,9 +259,6 @@
     <t>AB</t>
   </si>
   <si>
-    <t>WellId</t>
-  </si>
-  <si>
     <t>WellType</t>
   </si>
   <si>
@@ -671,6 +668,12 @@
   </si>
   <si>
     <t>dprod = 4.166667 = 200 / 48 is between 0.0 - 250.0 for a RR of 2.0%</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>WellID</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1783,7 +1786,7 @@
         <v>42307</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="23">
         <v>3559.12</v>
@@ -1792,7 +1795,7 @@
         <v>2909.71</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H28" s="20"/>
     </row>
@@ -1802,7 +1805,7 @@
         <v>42307</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="23">
         <v>12092.5</v>
@@ -1811,7 +1814,7 @@
         <v>11281.02</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29" s="25"/>
     </row>
@@ -1821,7 +1824,7 @@
         <v>42282</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="23">
         <v>4000</v>
@@ -1830,7 +1833,7 @@
         <v>2795.11</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H30" s="25"/>
     </row>
@@ -1840,7 +1843,7 @@
         <v>42282</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="28">
         <v>164</v>
@@ -1849,7 +1852,7 @@
         <v>114.6</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H31" s="30"/>
     </row>
@@ -1875,92 +1878,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>196</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>197</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>199</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>200</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>201</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>202</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>204</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2108,102 +2114,102 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
       <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" t="s">
         <v>112</v>
-      </c>
-      <c r="X1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>201509</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>201508</v>
@@ -2393,7 +2399,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>201507</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>201506</v>
@@ -2583,7 +2589,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>201505</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>201504</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>201503</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>201502</v>
@@ -2963,7 +2969,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>201501</v>
@@ -3058,7 +3064,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>201412</v>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>201411</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>201410</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>201409</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>201408</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>201407</v>
@@ -3628,7 +3634,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>201406</v>
@@ -3723,7 +3729,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>201405</v>
@@ -3818,7 +3824,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>201404</v>
@@ -3913,7 +3919,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>201403</v>
@@ -4008,7 +4014,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>201402</v>
@@ -4103,7 +4109,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>201401</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>201312</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>201311</v>
@@ -4388,7 +4394,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>201310</v>
@@ -4483,7 +4489,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>201309</v>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>201308</v>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>201307</v>
@@ -4768,7 +4774,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>201306</v>
@@ -4863,7 +4869,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>201305</v>
@@ -4958,7 +4964,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>201304</v>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>201303</v>
@@ -5148,7 +5154,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>201302</v>
@@ -5243,7 +5249,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34">
         <v>201301</v>
@@ -5338,7 +5344,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>201212</v>
@@ -5433,7 +5439,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <v>201211</v>
@@ -5528,7 +5534,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>201210</v>
@@ -5623,7 +5629,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>201209</v>
@@ -5718,7 +5724,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>201208</v>
@@ -5813,7 +5819,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>201207</v>
@@ -5908,7 +5914,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>201206</v>
@@ -6003,7 +6009,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>201205</v>
@@ -6098,7 +6104,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>201204</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>201203</v>
@@ -6288,7 +6294,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>201202</v>
@@ -6383,7 +6389,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>201201</v>
@@ -6478,7 +6484,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>201112</v>
@@ -6573,7 +6579,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>201111</v>
@@ -6689,35 +6695,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6741,24 +6747,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6771,13 +6777,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -6788,10 +6794,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -6800,39 +6806,39 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <v>1.2</v>
@@ -6841,30 +6847,30 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>1.1000000000000001</v>
@@ -6873,197 +6879,197 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="16">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0.9</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="16">
-        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>1.25</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="16">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>0.85</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" s="16">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
-      </c>
-      <c r="B8" s="16">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
-      </c>
-      <c r="B9" s="16">
-        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16">
+        <v>2000</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2000</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16">
+        <v>3000</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" s="16">
-        <v>3000</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>1.2</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -7075,13 +7081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -7089,10 +7093,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -7101,18 +7105,18 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -7125,10 +7129,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -7142,11 +7146,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="16">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -7159,11 +7163,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="16">
-        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -7176,11 +7180,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="16">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -7193,11 +7197,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" s="16">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -7210,11 +7214,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
-      </c>
-      <c r="B8" s="16">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -7227,11 +7231,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
-      </c>
-      <c r="B9" s="16">
-        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -7244,11 +7248,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16">
+        <v>2000</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2000</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -7261,11 +7265,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16">
+        <v>3000</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" s="16">
-        <v>3000</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -7277,7 +7281,7 @@
         <v>2345</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7289,9 +7293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7308,40 +7312,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>69</v>
       </c>
       <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" t="s">
         <v>162</v>
-      </c>
-      <c r="L1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7349,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -7364,10 +7368,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -7387,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -7402,10 +7406,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7425,7 +7429,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -7440,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
@@ -7457,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -7472,7 +7476,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
@@ -7489,7 +7493,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -7504,7 +7508,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -7518,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -7533,10 +7537,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7553,7 +7557,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -7568,10 +7572,10 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -7588,7 +7592,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -7603,7 +7607,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -7623,7 +7627,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -7638,10 +7642,10 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -7655,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -7670,10 +7674,10 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -7687,7 +7691,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -7702,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -7719,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -7734,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -7751,7 +7755,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -7766,10 +7770,10 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -7783,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -7798,10 +7802,10 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -7815,7 +7819,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -7830,10 +7834,10 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -7847,7 +7851,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -7862,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
         <v>48</v>
@@ -7879,7 +7883,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -7894,10 +7898,10 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -7911,7 +7915,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -7926,10 +7930,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -7943,7 +7947,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -7958,10 +7962,10 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -7975,7 +7979,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -7990,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>48</v>
@@ -8007,7 +8011,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -8022,10 +8026,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -8039,7 +8043,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -8054,10 +8058,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -8071,7 +8075,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -8086,10 +8090,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -8103,7 +8107,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -8118,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -8135,7 +8139,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -8150,10 +8154,10 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -8167,7 +8171,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -8182,10 +8186,10 @@
         <v>2000</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8199,7 +8203,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -8225,7 +8229,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -8251,7 +8255,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -8277,7 +8281,7 @@
         <v>1000</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -8303,7 +8307,7 @@
         <v>2000</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -8318,10 +8322,10 @@
         <v>2000</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -8335,7 +8339,7 @@
         <v>2001</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -8350,10 +8354,10 @@
         <v>2000</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -8367,7 +8371,7 @@
         <v>3000</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -8400,7 +8404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8418,40 +8422,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
-        <v>146</v>
-      </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10135,7 +10139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10144,40 +10150,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
-        <v>146</v>
-      </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10225,532 +10231,552 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>196</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>197</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>199</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>200</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>201</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>202</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>201501</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2680.44</v>
+      </c>
+      <c r="S2">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T2">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y2">
+        <v>0.08</v>
+      </c>
+      <c r="AA2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>201501</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2680.44</v>
+      </c>
+      <c r="S3">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T3">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.08</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201501</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2680.44</v>
+      </c>
+      <c r="S4">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T4">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.08</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>201501</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>27.11</v>
+      </c>
+      <c r="E5">
+        <v>626</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>221.123456</v>
+      </c>
+      <c r="I5">
+        <v>15.5</v>
+      </c>
+      <c r="J5">
+        <v>20.85</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3316.85</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>110.561728</v>
+      </c>
+      <c r="T5">
+        <v>3427.411728</v>
+      </c>
+      <c r="U5">
+        <v>32.913552499999987</v>
+      </c>
+      <c r="V5">
+        <v>1.9135525</v>
+      </c>
+      <c r="W5">
+        <v>34.827105000000003</v>
+      </c>
+      <c r="X5">
+        <v>3392.5846230000002</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>201501</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>221.123456</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>2680.44</v>
-      </c>
-      <c r="R2">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S2">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X2">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B7">
         <v>201501</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2680.44</v>
-      </c>
-      <c r="R3">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S3">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X3">
-        <v>0.08</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>201501</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2680.44</v>
-      </c>
-      <c r="R4">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S4">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X4">
-        <v>0.08</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>201501</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>27.11</v>
-      </c>
-      <c r="D5">
-        <v>626</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.34</v>
+      </c>
+      <c r="H7">
         <v>221.123456</v>
       </c>
-      <c r="H5">
-        <v>15.5</v>
-      </c>
-      <c r="I5">
-        <v>20.85</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>0.5</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>3316.85</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>110.561728</v>
-      </c>
-      <c r="S5">
-        <v>3427.411728</v>
-      </c>
-      <c r="T5">
-        <v>32.913552499999987</v>
-      </c>
-      <c r="U5">
-        <v>1.9135525</v>
-      </c>
-      <c r="V5">
-        <v>34.827105000000003</v>
-      </c>
-      <c r="W5">
-        <v>3392.5846230000002</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>201501</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>221.123456</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>201501</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="F7">
-        <v>2.34</v>
-      </c>
-      <c r="G7">
-        <v>221.123456</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.75</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1.75</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>386.97</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>386.97</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -10758,70 +10784,73 @@
         <v>0</v>
       </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>386.97</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>201501</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>23.12</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1734</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>221.123456</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7.2249999999999996</v>
-      </c>
-      <c r="I8">
-        <v>14.45</v>
       </c>
       <c r="J8">
         <v>14.45</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.45</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>7.2249999999999996</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>1597.62</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>1597.62</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -10829,70 +10858,73 @@
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>1597.62</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>201501</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>27.11</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>626</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>221.123456</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.2125000000000004</v>
-      </c>
-      <c r="I9">
-        <v>20.85</v>
       </c>
       <c r="J9">
         <v>20.85</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>5.2125000000000004</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>1152.6099999999999</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>1152.6099999999999</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
         <v>0</v>
       </c>
@@ -10900,70 +10932,73 @@
         <v>0</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>1152.6099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>201501</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>221.123456</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.75</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1.75</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>386.97</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>386.97</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
         <v>0</v>
       </c>
@@ -10971,1047 +11006,1089 @@
         <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>386.97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>201502</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>34.9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>805</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>223.37036599999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>29.95825</v>
-      </c>
-      <c r="I11">
-        <v>26.85</v>
       </c>
       <c r="J11">
         <v>26.85</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.85</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>28.058250000000001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1.9</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>6267.38</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>424.4036954</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>6691.7836954000004</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>63.614995753750001</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>63.614995753750001</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>6628.1686996462504</v>
       </c>
-      <c r="Z11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>201503</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.1237</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3.09</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>223.37036599999999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10.352</v>
-      </c>
-      <c r="I12">
-        <v>9.2799999999999994</v>
       </c>
       <c r="J12">
         <v>9.2799999999999994</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8.3520000000000003</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1865.59</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>446.74073199999998</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2312.3307319999999</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>1.2780061599999999</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>1.2780061599999999</v>
       </c>
       <c r="W12">
+        <v>1.2780061599999999</v>
+      </c>
+      <c r="X12">
         <v>2311.0527258400002</v>
       </c>
-      <c r="Z12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>201504</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>53.69</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1239</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>223.37036599999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>51.625</v>
-      </c>
-      <c r="I13">
-        <v>41.3</v>
       </c>
       <c r="J13">
         <v>41.3</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>51.625</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>11531.5</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>11531.5</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>109.62336437499999</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>6.3733643750000004</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>115.99672875</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>201504</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>53.69</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1239</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>223.37036599999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>51.625</v>
-      </c>
-      <c r="I14">
-        <v>41.3</v>
       </c>
       <c r="J14">
         <v>41.3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>51.625</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>11531.5</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>11531.5</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>109.62336437499999</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>6.3733643750000004</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>115.99672875</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>11415.50327125</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>201504</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>28.6</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>660</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>221.123456</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>22</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>15</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.5</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>3316.85</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>110.561728</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3427.411728</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>32.913552499999987</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.9135525</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>34.827105000000003</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3392.5846230000002</v>
       </c>
-      <c r="Z15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>201503</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>34.340000000000003</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>793</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>223.37036599999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>29.498449999999998</v>
-      </c>
-      <c r="I16">
-        <v>26.41</v>
       </c>
       <c r="J16">
         <v>26.41</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.41</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>27.59845</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.9</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>6164.68</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>424.4036954</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>6589.0836954000006</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>62.638631144750001</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>62.638631144750001</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>6526.4450642552501</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>201503</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I17">
+        <v>1.2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>223.37</v>
+      </c>
+      <c r="S17">
+        <v>44.674073200000009</v>
+      </c>
+      <c r="T17">
+        <v>268.04407320000001</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>268.04407320000001</v>
+      </c>
+      <c r="Y17">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>201503</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>223.37036599999999</v>
       </c>
-      <c r="H17">
-        <v>1.2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0.2</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>223.37</v>
-      </c>
-      <c r="R17">
-        <v>44.674073200000009</v>
-      </c>
-      <c r="S17">
-        <v>268.04407320000001</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>268.04407320000001</v>
-      </c>
-      <c r="X17">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>2680.44</v>
+      </c>
+      <c r="S18">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T18">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y18">
         <v>0.25</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>201503</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>2680.44</v>
+      </c>
+      <c r="S19">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T19">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y19">
+        <v>0.25</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>201503</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2680.44</v>
+      </c>
+      <c r="S20">
+        <v>446.74073199999998</v>
+      </c>
+      <c r="T20">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>3127.1807319999998</v>
+      </c>
+      <c r="Y20">
+        <v>0.25</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>201504</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I21">
+        <v>38.4</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>34.4</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>7683.94</v>
+      </c>
+      <c r="S21">
+        <v>893.48146400000007</v>
+      </c>
+      <c r="T21">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="Y21">
+        <v>0.33</v>
+      </c>
+      <c r="AA21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>201503</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>201504</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>223.37036599999999</v>
       </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="I22">
+        <v>38.4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>34.4</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>7683.94</v>
+      </c>
+      <c r="S22">
+        <v>893.48146400000007</v>
+      </c>
+      <c r="T22">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="Y22">
+        <v>0.33</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>201504</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>223.37036599999999</v>
+      </c>
+      <c r="I23">
+        <v>38.4</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>12</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2680.44</v>
-      </c>
-      <c r="R18">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S18">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X18">
-        <v>0.25</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>201503</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>34.4</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>7683.94</v>
+      </c>
+      <c r="S23">
+        <v>893.48146400000007</v>
+      </c>
+      <c r="T23">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>8577.4214639999991</v>
+      </c>
+      <c r="Y23">
+        <v>0.33</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>201504</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>24.7</v>
+      </c>
+      <c r="E24">
+        <v>570</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>223.37036599999999</v>
       </c>
-      <c r="H19">
-        <v>14</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>12</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2680.44</v>
-      </c>
-      <c r="R19">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S19">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X19">
-        <v>0.25</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>201503</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>12</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2680.44</v>
-      </c>
-      <c r="R20">
-        <v>446.74073199999998</v>
-      </c>
-      <c r="S20">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>3127.1807319999998</v>
-      </c>
-      <c r="X20">
-        <v>0.25</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>201504</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H21">
-        <v>38.4</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21">
-        <v>34.4</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7683.94</v>
-      </c>
-      <c r="R21">
-        <v>893.48146400000007</v>
-      </c>
-      <c r="S21">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="X21">
-        <v>0.33</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>201504</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H22">
-        <v>38.4</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>34.4</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>7683.94</v>
-      </c>
-      <c r="R22">
-        <v>893.48146400000007</v>
-      </c>
-      <c r="S22">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="X22">
-        <v>0.33</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>201504</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H23">
-        <v>38.4</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>34.4</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7683.94</v>
-      </c>
-      <c r="R23">
-        <v>893.48146400000007</v>
-      </c>
-      <c r="S23">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>8577.4214639999991</v>
-      </c>
-      <c r="X23">
-        <v>0.33</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>201504</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>24.7</v>
-      </c>
-      <c r="D24">
-        <v>570</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>223.37036599999999</v>
-      </c>
-      <c r="H24">
+      <c r="I24">
         <v>16.149999999999999</v>
-      </c>
-      <c r="I24">
-        <v>19</v>
       </c>
       <c r="J24">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>16.149999999999999</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>3607.43</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>3607.43</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
@@ -12019,70 +12096,73 @@
         <v>0</v>
       </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>3607.43</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>201504</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>24.7</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>570</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>223.37036599999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>16.149999999999999</v>
-      </c>
-      <c r="I25">
-        <v>19</v>
       </c>
       <c r="J25">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>16.149999999999999</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>3607.43</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>3607.43</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
         <v>0</v>
       </c>
@@ -12090,289 +12170,301 @@
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>3607.43</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>201504</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>35.65</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>823</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>221.123456</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>62</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>27.42</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>50</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>60</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>13267.41</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>442.24691200000001</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>13709.656912</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>131.65421000000001</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>7.65421</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>139.30842000000001</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>13570.348491999999</v>
       </c>
-      <c r="Z26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>201504</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>37.81</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>873</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>223.37036599999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>33.988000000000007</v>
-      </c>
-      <c r="I27">
-        <v>29.08</v>
       </c>
       <c r="J27">
         <v>29.08</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>29.08</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>31.98800000000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>7145.17</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>446.74073199999998</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>7591.9107320000003</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>72.171988540000015</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>72.171988540000015</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>7519.7387434599996</v>
       </c>
-      <c r="Z27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>201504</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>28.6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>660</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>223.37036599999999</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>27.5</v>
-      </c>
-      <c r="I28">
-        <v>22</v>
       </c>
       <c r="J28">
         <v>22</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>27.5</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>6142.69</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>6142.69</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>58.395012500000007</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3.3950125</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>61.790025000000007</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>6080.8999749999994</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>201504</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>40.58</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>937</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>223.37036599999999</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>26.528500000000001</v>
-      </c>
-      <c r="I29">
-        <v>31.21</v>
       </c>
       <c r="J29">
         <v>31.21</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>31.21</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>26.528500000000001</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>5925.68</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>5925.68</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
@@ -12380,144 +12472,150 @@
         <v>0</v>
       </c>
       <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>5925.68</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>201504</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>41.65</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>961</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>221.123456</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>62</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>32.04</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>50</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>2</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>60</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>13267.41</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>442.24691200000001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>13709.656912</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>131.65421000000001</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>7.65421</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>139.30842000000001</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>13570.348491999999</v>
       </c>
-      <c r="Z30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>201504</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>20</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>53.69</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1239</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>223.37036599999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>35.104999999999997</v>
-      </c>
-      <c r="I31">
-        <v>41.3</v>
       </c>
       <c r="J31">
         <v>41.3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>35.104999999999997</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>7841.42</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>7841.42</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
       <c r="U31">
         <v>0</v>
       </c>
@@ -12525,6 +12623,9 @@
         <v>0</v>
       </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>7841.42</v>
       </c>
     </row>

--- a/excel-app/files/database.xlsx
+++ b/excel-app/files/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="7305" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Roy Module Construct" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,18 @@
     <sheet name="Lease" sheetId="4" r:id="rId5"/>
     <sheet name="Well" sheetId="9" r:id="rId6"/>
     <sheet name="Monthly" sheetId="5" r:id="rId7"/>
-    <sheet name=" Monthly 1" sheetId="13" r:id="rId8"/>
-    <sheet name="Calc" sheetId="15" r:id="rId9"/>
-    <sheet name="Calc 1" sheetId="14" r:id="rId10"/>
-    <sheet name="ProducingEntity" sheetId="11" r:id="rId11"/>
-    <sheet name="ExternalValues" sheetId="6" r:id="rId12"/>
-    <sheet name="ProductClauses" sheetId="7" r:id="rId13"/>
-    <sheet name="ECONData" sheetId="10" r:id="rId14"/>
+    <sheet name="Calc" sheetId="15" r:id="rId8"/>
+    <sheet name="ProducingEntity" sheetId="11" r:id="rId9"/>
+    <sheet name="ExternalValues" sheetId="6" r:id="rId10"/>
+    <sheet name="ProductClauses" sheetId="7" r:id="rId11"/>
+    <sheet name="ECONData" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="213">
   <si>
     <t>Lease Type</t>
   </si>
@@ -419,9 +417,6 @@
   </si>
   <si>
     <t>SRC</t>
-  </si>
-  <si>
-    <t>Row</t>
   </si>
   <si>
     <t>UWI</t>
@@ -1525,7 +1520,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1786,7 +1781,7 @@
         <v>42307</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="23">
         <v>3559.12</v>
@@ -1795,7 +1790,7 @@
         <v>2909.71</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="20"/>
     </row>
@@ -1805,7 +1800,7 @@
         <v>42307</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="23">
         <v>12092.5</v>
@@ -1814,7 +1809,7 @@
         <v>11281.02</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="25"/>
     </row>
@@ -1824,7 +1819,7 @@
         <v>42282</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E30" s="23">
         <v>4000</v>
@@ -1833,7 +1828,7 @@
         <v>2795.11</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="25"/>
     </row>
@@ -1843,7 +1838,7 @@
         <v>42282</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="28">
         <v>164</v>
@@ -1852,7 +1847,7 @@
         <v>114.6</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="30"/>
     </row>
@@ -1878,144 +1873,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" t="s">
-        <v>196</v>
-      </c>
-      <c r="T1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2040,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -2091,4584 +1948,4728 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>114</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>115</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>116</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>117</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>110</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>111</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>201509</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>162</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>210</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>276</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.81</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1561</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20.46</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>472</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26.48</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>611</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.1045</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.61</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>25.85</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1939</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>31.57</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>729</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>38.54</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>890</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.12089999999999999</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3.02</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>29.91</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2243</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>36.08</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>833</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>40.79</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>941</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>52.61</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>201508</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>198</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>232</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>273</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1003</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>24.81</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1861</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>22.65</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>523</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>27.58</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>637</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.111</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.77</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>27.46</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2060</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>32.89</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>759</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>39.200000000000003</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>905</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1203</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3.01</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>29.77</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2233</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>35.979999999999997</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>830</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>40.74</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>940</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>52.55</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1213</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>201507</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>317</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>339</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>365</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.12759999999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.19</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>31.59</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2369</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>26.35</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>608</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>29.42</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>679</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.13059999999999999</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.26</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>32.32</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2424</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>36.869999999999997</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>851</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>41.19</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>951</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.1336</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3.34</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>33.07</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2480</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>38.380000000000003</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>886</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>41.94</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>968</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>54.05</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1247</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>201506</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>356</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>384</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>413</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1326</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.32</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>32.82</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2462</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>27.02</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>624</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>29.76</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>687</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.1356</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3.39</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>33.549999999999997</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2516</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>37.880000000000003</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>874</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>41.69</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>962</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.13819999999999999</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3.45</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>34.200000000000003</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2565</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>905</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>42.35</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>977</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>54.57</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>201505</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>305</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>348</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>382</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.1258</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>31.14</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2336</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26.11</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>603</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29.3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>676</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.13170000000000001</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3.29</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>32.590000000000003</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2444</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>37.090000000000003</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>856</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>41.3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>953</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.13539999999999999</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3.38</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>33.5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2513</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>38.69</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>893</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>42.1</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>972</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>54.25</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>201504</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>250</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>297</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>338</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1154</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.89</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>28.57</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2143</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>24.7</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>570</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>28.6</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>660</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.1246</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3.11</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>30.83</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2312</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>35.65</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>823</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>40.58</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>937</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.13039999999999999</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3.26</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>32.28</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2421</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>37.81</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>873</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>41.65</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>961</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>53.69</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>201503</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>221</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>262</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>292</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.10780000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>26.69</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>23.68</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>547</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>28.09</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>648</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.1181</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2.95</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>29.22</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2192</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>34.340000000000003</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>793</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>39.92</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>921</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.1237</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3.09</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>30.62</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2297</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>36.6</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>845</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>41.05</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>947</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>52.93</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1222</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>201502</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>239</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>276</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>302</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1128</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.82</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>27.91</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2093</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>24.34</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>562</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>28.42</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>656</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.12089999999999999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3.02</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>29.91</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2243</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>34.9</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>805</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>40.200000000000003</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>928</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.12540000000000001</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3.13</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>31.03</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2327</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>36.89</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>851</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>41.2</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>951</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>53.12</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1226</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>201501</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>181</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>223</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>262</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.34</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>23.12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1734</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>21.73</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>502</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>27.11</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>626</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.1085</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.71</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>26.84</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2013</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>32.380000000000003</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>747</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>38.94</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>899</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.1181</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2.95</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>29.22</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2192</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>35.58</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>821</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>40.54</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>936</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>52.3</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1207</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>201412</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>268</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>306</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>322</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.1193</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.98</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>29.53</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2215</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25.22</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>582</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>28.86</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>666</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.126</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3.15</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>31.18</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2339</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>35.94</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>829</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>40.72</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>940</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.1283</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3.21</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>31.76</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2382</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>37.43</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>864</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>41.46</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>957</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>53.45</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1234</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>201411</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>404</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>440</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>464</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.13739999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3.44</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>34.01</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2551</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>27.67</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>639</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>30.09</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>694</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.14030000000000001</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3.51</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>34.729999999999997</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2605</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>38.85</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>897</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>42.18</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>974</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.14199999999999999</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3.55</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>35.15</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2636</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>39.9</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>921</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>42.7</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>986</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>55</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1269</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>201410</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>452</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>490</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>524</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.14119999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.53</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>34.950000000000003</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2621</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>28.19</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>651</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>30.34</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>700</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.14369999999999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3.59</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>35.56</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2667</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>39.53</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>912</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>42.52</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>981</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.14560000000000001</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>3.64</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>36.04</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2703</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>40.54</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>936</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>43.02</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>993</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>55.4</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>201409</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>469</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>504</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>547</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.1424</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.56</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>35.24</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2643</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>28.34</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>654</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>30.42</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>702</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.14449999999999999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.61</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>35.76</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2682</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>39.700000000000003</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>916</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>42.6</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>983</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.14680000000000001</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3.67</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>36.32</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2724</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>40.75</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>941</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>43.12</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>995</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>55.53</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1282</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>201408</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>458</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>494</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>553</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.1416</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.54</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>35.049999999999997</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2629</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>28.24</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>652</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>30.37</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>701</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.1439</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3.6</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>35.619999999999997</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2672</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>39.58</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>914</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>42.54</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>982</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.14699999999999999</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3.68</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>36.39</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2729</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>942</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>43.15</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>996</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>55.56</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1282</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>201407</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>512</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>544</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>598</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.62</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>35.880000000000003</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2691</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>28.69</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>662</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>30.6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>706</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.14660000000000001</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3.67</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>36.29</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2722</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>40.119999999999997</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>926</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>42.81</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>988</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.14899999999999999</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3.73</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>36.880000000000003</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2766</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>41.15</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>950</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>43.33</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>55.78</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>201406</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>535</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>574</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>635</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.1462</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.65</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>36.18</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2714</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>28.86</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>666</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>30.68</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>708</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3.7</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>36.630000000000003</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2747</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>40.4</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>932</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>42.95</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>991</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.15040000000000001</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3.76</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>37.229999999999997</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2792</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>41.41</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>956</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>43.45</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1003</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>55.94</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1291</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>201405</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>503</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>554</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>625</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.14449999999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.61</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>35.75</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2681</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>28.62</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>661</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>30.56</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>705</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.14710000000000001</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3.68</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>36.4</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2730</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>40.22</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>928</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>42.86</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>989</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.15010000000000001</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3.75</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>37.14</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2786</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>41.34</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>954</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>43.42</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1002</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>55.9</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>201404</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>481</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>538</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>597</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.14319999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.58</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>35.43</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2657</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>28.45</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>657</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>30.47</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>703</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.14630000000000001</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3.66</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>36.21</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2716</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>40.06</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>925</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>42.78</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>987</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.14899999999999999</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3.72</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>36.869999999999997</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2765</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>41.14</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>950</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>43.32</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>55.78</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>201403</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>484</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>545</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>608</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.14330000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.58</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>35.47</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2660</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>28.47</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>657</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>30.49</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>704</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1467</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3.67</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>36.299999999999997</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2723</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>40.130000000000003</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>926</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>42.82</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>988</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.14940000000000001</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3.74</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>36.979999999999997</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2774</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>41.22</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>951</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>43.36</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1001</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>55.83</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1289</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>201402</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>495</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>559</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>627</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3.6</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>35.64</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2673</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>28.56</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>659</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>30.53</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>705</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.14729999999999999</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3.68</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>36.46</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2735</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>40.270000000000003</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>929</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>42.88</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>990</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.15010000000000001</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3.75</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>37.15</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2786</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>41.35</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>954</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>43.43</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1002</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>55.91</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1290</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>201401</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>369</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>446</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>522</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.35</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>33.17</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2488</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>27.22</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>628</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>29.86</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>689</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.14080000000000001</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3.52</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>34.840000000000003</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2613</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>38.94</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>899</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>42.22</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>974</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.14549999999999999</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3.64</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>36.01</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2701</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>40.520000000000003</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>935</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>43.01</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>993</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>55.39</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1278</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>201312</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>303</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>388</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>477</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1255</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.14</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>31.06</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2330</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>26.06</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>601</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>29.28</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>676</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.13600000000000001</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.4</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>33.65</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2524</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>37.96</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>876</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>41.73</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>963</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1429</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3.57</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>35.36</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2652</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>40.049999999999997</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>924</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>42.77</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>987</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>55.09</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1271</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>95</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>201311</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>345</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>405</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>475</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1313</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.28</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>32.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2438</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>26.85</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>620</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>29.67</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>685</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.13750000000000001</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3.44</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>34.03</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2552</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>38.28</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>884</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>41.89</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>967</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.14280000000000001</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3.57</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>35.33</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>2650</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>40.03</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>924</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>42.76</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>987</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>55.08</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1271</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>201310</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>424</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>474</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>548</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.1391</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.48</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>34.43</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2582</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>27.9</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>644</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>30.2</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>697</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.14269999999999999</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>3.57</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>35.32</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2649</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>39.33</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>908</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>42.41</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>979</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.14680000000000001</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3.67</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>36.33</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2725</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>40.76</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>941</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>43.13</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>995</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>55.53</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1282</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>201309</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>493</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>532</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>605</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.1439</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.6</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>35.61</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2671</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>28.54</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>659</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>30.52</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>704</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.14599999999999999</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3.65</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>36.14</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2711</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>40</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>923</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>42.75</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>987</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.14929999999999999</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3.73</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>36.950000000000003</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2771</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>41.2</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>951</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>43.35</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1001</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>55.81</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1288</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>201308</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>556</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>582</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>630</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.1472</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3.68</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>36.43</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2732</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>28.99</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>669</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>30.75</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>710</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.14829999999999999</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3.71</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>36.71</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2753</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>40.47</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>934</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>42.99</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>992</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.1502</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.76</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>37.18</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2789</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>41.37</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>955</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>43.44</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1003</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>55.92</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>201307</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>548</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>577</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>632</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.14680000000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3.67</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>36.33</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2725</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>28.94</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>668</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>30.72</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>709</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.14810000000000001</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.7</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>36.659999999999997</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2750</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>40.43</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>933</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>42.97</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>992</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.15029999999999999</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3.76</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>37.200000000000003</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2790</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>41.39</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>955</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>43.44</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1003</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>55.93</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1291</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>201306</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>431</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>473</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>545</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.1396</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3.49</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>34.56</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2592</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>27.98</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>646</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>30.24</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>698</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.1426</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>3.57</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2648</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>39.32</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>908</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>42.41</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>979</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.1467</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3.67</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>36.299999999999997</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>2723</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>40.729999999999997</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>940</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>43.11</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>995</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>55.52</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1281</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>201305</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>455</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>398</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>538</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.1414</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.54</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>35</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2625</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>28.21</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>651</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>30.36</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>701</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.13689999999999999</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3.42</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>33.880000000000003</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2541</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>38.15</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>881</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>41.83</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>965</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.14630000000000001</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3.66</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>36.21</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2716</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>40.67</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>939</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>43.08</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>994</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>55.48</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1280</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>201304</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>351</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>422</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>510</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.1321</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3.3</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>32.68</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2451</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>26.94</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>622</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>29.72</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>686</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.13900000000000001</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3.47</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>34.39</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2579</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>38.57</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>890</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>42.03</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>970</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.1449</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3.62</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>35.85</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2689</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>40.4</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>932</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>42.95</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>991</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>55.31</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1277</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>201303</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>331</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>410</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>498</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.1295</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.24</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>32.06</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2405</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>26.61</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>614</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>29.55</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>682</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>3.45</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>34.14</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2561</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>38.369999999999997</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>886</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>41.93</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>968</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.14419999999999999</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3.6</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>35.68</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2676</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>40.28</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>930</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>42.89</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>990</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>55.24</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1275</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>201302</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>254</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>351</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>484</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.1163</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2.91</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>28.79</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2159</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>24.82</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>573</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>28.66</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>661</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.1321</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>3.3</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>32.68</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2451</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>37.17</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>858</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>41.33</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>954</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.14330000000000001</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3.58</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>35.47</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2660</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>40.130000000000003</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>926</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>42.81</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>988</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>55.14</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>1273</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>201301</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>279</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>368</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>492</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.12139999999999999</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>3.04</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>30.05</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2254</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>25.51</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>589</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>29.01</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>670</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.13400000000000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>3.35</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>33.15</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2486</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>37.549999999999997</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>867</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>41.53</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>959</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.14380000000000001</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3.59</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>35.590000000000003</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>2669</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>40.22</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>928</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>42.86</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>989</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>55.2</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>201212</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>259</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>340</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>413</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.1174</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.94</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>29.06</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2180</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>24.97</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>576</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>28.74</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>663</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.13070000000000001</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>3.27</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>32.35</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2426</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>36.9</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>852</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>41.2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>951</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.13819999999999999</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3.45</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>34.200000000000003</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2565</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>905</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>42.35</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>977</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>54.57</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>201211</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>397</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>435</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>495</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.1368</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.42</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>33.86</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2540</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>27.59</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>637</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>30.04</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>693</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>3.5</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>34.64</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2598</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>38.78</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>895</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>42.14</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>973</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.14399999999999999</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3.6</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>35.64</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2673</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>40.25</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>929</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>42.87</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>989</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>55.22</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>1274</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>201210</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>444</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>476</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>532</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.14069999999999999</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3.52</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>34.81</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>2611</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>28.11</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>649</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>30.3</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>699</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.14280000000000001</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>3.57</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>35.35</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2651</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>39.36</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>908</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>42.43</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>979</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.14599999999999999</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3.65</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>36.14</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>2711</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>40.61</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>937</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>43.06</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>994</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>55.45</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1280</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>201209</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>425</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>461</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>523</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.13919999999999999</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3.48</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>34.450000000000003</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2584</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>27.91</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>644</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>30.21</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>697</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.14180000000000001</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>3.55</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>35.1</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2633</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>39.159999999999997</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>904</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>42.33</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>977</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.14549999999999999</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3.64</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>36.020000000000003</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>2702</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>40.53</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>935</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>43.01</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>993</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>55.39</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>1278</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>201208</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>365</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>411</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>480</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.1336</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.34</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>33.07</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2480</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>27.16</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>627</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>29.83</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>688</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>3.45</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>34.159999999999997</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2562</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>38.380000000000003</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>886</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>41.94</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>968</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.1431</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3.58</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>35.409999999999997</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>2656</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>40.08</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>925</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>42.79</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>988</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>55.11</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>201207</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>346</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>391</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>444</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.13139999999999999</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.29</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>32.53</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>2440</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>26.86</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>620</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>29.68</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>685</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>0.1363</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>3.41</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>33.72</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2529</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>38.020000000000003</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>878</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>41.76</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>964</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.14069999999999999</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3.52</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>34.81</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>2611</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>39.64</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>915</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>42.57</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>983</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>54.84</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>201206</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>366</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>411</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>468</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.13370000000000001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>3.34</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>33.090000000000003</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2482</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>27.17</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>627</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>29.84</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>689</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>3.45</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>34.159999999999997</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2562</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>38.380000000000003</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>886</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>41.94</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>968</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.14230000000000001</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3.56</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>35.22</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>2642</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>39.94</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>922</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>42.72</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>986</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>55.03</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>201205</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>398</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>459</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>504</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.13689999999999999</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3.42</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>33.880000000000003</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>2541</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>27.6</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>637</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>30.05</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>694</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.14169999999999999</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>3.54</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>35.07</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2630</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>39.130000000000003</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>903</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>42.31</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>977</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.14449999999999999</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3.61</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>35.76</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>2682</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>40.340000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>931</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>42.92</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>991</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>55.28</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>1276</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>201204</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>336</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>418</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>467</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.13020000000000001</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>3.25</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>32.22</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>2417</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>26.7</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>616</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>29.6</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>683</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.1386</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>3.47</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>34.31</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2573</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>38.5</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>889</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>42</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>969</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.14219999999999999</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>3.56</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>35.200000000000003</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>2640</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>39.93</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>922</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>42.72</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>986</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>55.02</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>1270</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>201203</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>369</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>454</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>487</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.35</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>33.17</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2488</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>27.22</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>628</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>29.86</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>689</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.14130000000000001</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>3.53</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>34.979999999999997</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2624</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>39.06</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>902</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>42.28</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>976</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.14349999999999999</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>3.59</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>35.520000000000003</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>2664</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>40.159999999999997</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>927</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>42.83</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>989</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>55.16</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>1273</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>201202</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>442</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>507</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>555</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.14050000000000001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>3.51</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>34.770000000000003</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2608</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>28.09</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>648</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>30.29</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>699</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.1447</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>3.62</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>35.81</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2686</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>39.729999999999997</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>917</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>42.62</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>984</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.1472</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>3.68</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>36.42</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>2732</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>40.82</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>942</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>43.16</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>996</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>55.57</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>1283</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>201201</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>487</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>537</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>581</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.14349999999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>3.59</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>35.520000000000003</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>2664</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>28.5</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>658</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>30.5</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>704</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.14630000000000001</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>3.66</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>36.200000000000003</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2715</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>40.049999999999997</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>924</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>42.78</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>987</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.14829999999999999</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3.71</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>36.700000000000003</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>2753</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>41.02</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>947</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>43.26</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>998</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>55.7</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>201112</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>510</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>544</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>587</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.1449</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>3.62</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>35.85</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2689</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>28.68</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>662</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>30.59</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>706</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.14660000000000001</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3.67</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>36.29</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>2722</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>40.119999999999997</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>926</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>42.81</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>988</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.14860000000000001</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>3.71</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>36.770000000000003</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>2758</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>41.07</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>948</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>43.29</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>999</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>55.73</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>1286</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>201111</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>508</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>546</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>590</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.1447</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>3.62</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>35.82</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>2687</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>28.66</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>661</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>30.58</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>706</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.1467</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>3.67</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>36.31</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2723</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>40.14</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>926</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>42.82</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>988</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.1487</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>3.72</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>36.799999999999997</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>2760</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>41.09</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>948</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>43.3</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>999</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>55.75</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>1287</v>
       </c>
     </row>
@@ -6695,35 +6696,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6747,24 +6748,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6794,7 +6795,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>52</v>
@@ -6806,25 +6807,25 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
-        <v>159</v>
-      </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6838,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2">
         <v>1.2</v>
@@ -6847,16 +6848,16 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6870,7 +6871,7 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3">
         <v>1.1000000000000001</v>
@@ -6879,13 +6880,13 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6899,19 +6900,19 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4">
         <v>0.9</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6925,19 +6926,19 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5">
         <v>1.25</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6951,13 +6952,13 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>0.85</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6971,16 +6972,16 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6994,16 +6995,16 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7017,16 +7018,16 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7040,13 +7041,13 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7060,16 +7061,16 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11">
         <v>1.2</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7093,7 +7094,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>52</v>
@@ -7105,10 +7106,10 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7281,7 +7282,7 @@
         <v>2345</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -7312,10 +7313,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -7327,13 +7328,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
         <v>128</v>
@@ -7342,10 +7343,10 @@
         <v>69</v>
       </c>
       <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
         <v>161</v>
-      </c>
-      <c r="L1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7353,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -7391,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -7429,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -7461,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -7493,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -7522,7 +7523,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -7557,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -7592,7 +7593,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -7627,7 +7628,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -7659,7 +7660,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -7691,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -7723,7 +7724,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -7755,7 +7756,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -7787,7 +7788,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -7819,7 +7820,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -7851,7 +7852,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -7883,7 +7884,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -7915,7 +7916,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -7947,7 +7948,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -7979,7 +7980,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -8011,7 +8012,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -8043,7 +8044,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -8075,7 +8076,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -8107,7 +8108,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -8139,7 +8140,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -8171,7 +8172,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -8203,7 +8204,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -8229,7 +8230,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -8255,7 +8256,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -8281,7 +8282,7 @@
         <v>1000</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -8307,7 +8308,7 @@
         <v>2000</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -8339,7 +8340,7 @@
         <v>2001</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -8371,7 +8372,7 @@
         <v>3000</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -8403,8 +8404,8 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8422,40 +8423,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
       <c r="L1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8612,7 +8613,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18">
         <v>42276</v>
@@ -8650,7 +8651,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18">
         <v>42276</v>
@@ -8688,7 +8689,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18">
         <v>42276</v>
@@ -8726,7 +8727,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18">
         <v>42276</v>
@@ -8764,7 +8765,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>42276</v>
@@ -8802,7 +8803,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18">
         <v>42276</v>
@@ -8840,7 +8841,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>42276</v>
@@ -8878,7 +8879,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>42276</v>
@@ -8916,7 +8917,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18">
         <v>42276</v>
@@ -8954,7 +8955,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" s="18">
         <v>42276</v>
@@ -8992,7 +8993,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="18">
         <v>42276</v>
@@ -9030,7 +9031,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" s="18">
         <v>42276</v>
@@ -9068,7 +9069,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="18">
         <v>42276</v>
@@ -9106,7 +9107,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="18">
         <v>42276</v>
@@ -9144,7 +9145,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" s="18">
         <v>42276</v>
@@ -9182,7 +9183,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="18">
         <v>42276</v>
@@ -9220,7 +9221,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="18">
         <v>42276</v>
@@ -9258,7 +9259,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="18">
         <v>42276</v>
@@ -9296,7 +9297,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="18">
         <v>42276</v>
@@ -9334,7 +9335,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" s="18">
         <v>42276</v>
@@ -9372,7 +9373,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26" s="18">
         <v>42276</v>
@@ -9410,7 +9411,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" s="18">
         <v>42276</v>
@@ -9448,7 +9449,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="18">
         <v>42276</v>
@@ -9486,7 +9487,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="18">
         <v>42276</v>
@@ -9524,7 +9525,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" s="18">
         <v>42276</v>
@@ -9562,7 +9563,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="18">
         <v>42276</v>
@@ -9600,7 +9601,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" s="18">
         <v>42276</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="18">
         <v>42276</v>
@@ -9676,7 +9677,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" s="18">
         <v>42276</v>
@@ -9714,7 +9715,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" s="18">
         <v>42276</v>
@@ -9752,7 +9753,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" s="18">
         <v>42276</v>
@@ -9790,7 +9791,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="18">
         <v>42276</v>
@@ -9828,7 +9829,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="18">
         <v>42276</v>
@@ -9866,7 +9867,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="18">
         <v>42276</v>
@@ -9904,7 +9905,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" s="18">
         <v>42276</v>
@@ -9942,7 +9943,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="18">
         <v>42276</v>
@@ -9980,7 +9981,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="18">
         <v>42276</v>
@@ -10018,7 +10019,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" s="18">
         <v>42276</v>
@@ -10056,7 +10057,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="18">
         <v>42276</v>
@@ -10094,7 +10095,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="18">
         <v>42276</v>
@@ -10136,100 +10137,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
-        <v>42276</v>
-      </c>
-      <c r="C2">
-        <v>201501</v>
-      </c>
-      <c r="D2" s="16">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>740</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J2">
-        <v>221.123456</v>
-      </c>
-      <c r="K2">
-        <v>2.1234549999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.123455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
@@ -10241,85 +10148,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>190</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>191</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>192</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>195</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>196</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>197</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>198</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>199</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>200</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>203</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -10399,7 +10306,7 @@
         <v>0.08</v>
       </c>
       <c r="AA2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -10479,7 +10386,7 @@
         <v>0.08</v>
       </c>
       <c r="AA3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -10559,7 +10466,7 @@
         <v>0.08</v>
       </c>
       <c r="AA4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -10636,7 +10543,7 @@
         <v>3392.5846230000002</v>
       </c>
       <c r="AA5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -10713,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -11086,7 +10993,7 @@
         <v>6628.1686996462504</v>
       </c>
       <c r="AA11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -11163,7 +11070,7 @@
         <v>2311.0527258400002</v>
       </c>
       <c r="AA12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -11388,7 +11295,7 @@
         <v>3392.5846230000002</v>
       </c>
       <c r="AA15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -11465,7 +11372,7 @@
         <v>6526.4450642552501</v>
       </c>
       <c r="AA16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -11545,7 +11452,7 @@
         <v>0.25</v>
       </c>
       <c r="AA17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -11625,7 +11532,7 @@
         <v>0.25</v>
       </c>
       <c r="AA18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -11705,7 +11612,7 @@
         <v>0.25</v>
       </c>
       <c r="AA19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -11785,7 +11692,7 @@
         <v>0.25</v>
       </c>
       <c r="AA20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -11865,7 +11772,7 @@
         <v>0.33</v>
       </c>
       <c r="AA21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -11945,7 +11852,7 @@
         <v>0.33</v>
       </c>
       <c r="AA22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -12025,7 +11932,7 @@
         <v>0.33</v>
       </c>
       <c r="AA23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -12250,7 +12157,7 @@
         <v>13570.348491999999</v>
       </c>
       <c r="AA26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -12327,7 +12234,7 @@
         <v>7519.7387434599996</v>
       </c>
       <c r="AA27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -12552,7 +12459,7 @@
         <v>13570.348491999999</v>
       </c>
       <c r="AA30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -12627,6 +12534,46 @@
       </c>
       <c r="X31">
         <v>7841.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
